--- a/draft/Ref-Death-Causes.xlsx
+++ b/draft/Ref-Death-Causes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/draft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266C5C1-899C-EF40-8AD6-1BCDAA657505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF3E82-F538-E842-8694-C35AB6BA8F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>https://www.cdc.gov/flu/about/burden/2018-2019.html</t>
   </si>
   <si>
-    <t>Motor vehicle deaths</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Motor_vehicle_fatality_rate_in_U.S._by_year</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>https://www.cancer.org/research/cancer-facts-statistics/all-cancer-facts-figures/cancer-facts-figures-2018.html</t>
+  </si>
+  <si>
+    <t>Motor vehicle deaths 2018</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -273,6 +273,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -660,7 +661,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -905,7 +906,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>36560</v>
@@ -914,13 +915,13 @@
         <f t="shared" si="1"/>
         <v>111.38207753244876</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>48344</v>
@@ -930,12 +931,12 @@
         <v>147.2826902688376</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>67367</v>
@@ -945,12 +946,12 @@
         <v>205.23731994333906</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>609640</v>
@@ -960,7 +961,7 @@
         <v>1857.3022359650456</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -971,12 +972,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="6">
         <v>0.01</v>
@@ -987,16 +988,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="6"/>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="6">
         <f>C40</f>
@@ -1005,7 +1006,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="6">
         <f>C41</f>
@@ -1017,13 +1018,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="7">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1031,40 +1032,40 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
         <v>450000</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>28000</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="8">
         <v>0.2</v>
@@ -1072,7 +1073,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="8">
         <v>0.1</v>
@@ -1080,7 +1081,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="8">
         <v>0.03</v>
@@ -1088,7 +1089,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="8">
         <v>0.3</v>
@@ -1096,7 +1097,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
